--- a/data/trans_dic/P79_n_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P79_n_R2-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.06843043919528172</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.05603324541526534</v>
+        <v>0.05603324541526533</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0208760431277976</v>
+        <v>0.02121796289160253</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03844496556807015</v>
+        <v>0.03660831769227158</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03736543764367725</v>
+        <v>0.0349898348955868</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08423993702018928</v>
+        <v>0.08180187775089247</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1148770347307559</v>
+        <v>0.1171453664879116</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08669951701249731</v>
+        <v>0.08624853572821946</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01892834537578489</v>
+        <v>0.01922239132681751</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01924170136227866</v>
+        <v>0.0183272747486518</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02250897273506541</v>
+        <v>0.02335794314508334</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0604485532172195</v>
+        <v>0.06110593768194578</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05414008234350931</v>
+        <v>0.05071659760326633</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04840425568597313</v>
+        <v>0.04914023926125258</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02479198930910514</v>
+        <v>0.02498775109431028</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02987804641916974</v>
+        <v>0.03009235098489377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03220054322699229</v>
+        <v>0.03090817774805269</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05772123473335655</v>
+        <v>0.05812914638745671</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05973649012691996</v>
+        <v>0.06095233586064538</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05315566706615103</v>
+        <v>0.05249333081125405</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.0424300660864079</v>
+        <v>0.04243006608640789</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.04116239094775716</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03009002433324125</v>
+        <v>0.02923425433884655</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03014056264933758</v>
+        <v>0.02981981071005991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03152785570329197</v>
+        <v>0.03262503538266483</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06353824480044548</v>
+        <v>0.06100826921544016</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05483056466569518</v>
+        <v>0.05366579945962332</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05200535457803231</v>
+        <v>0.0523210548084035</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.03791243132974988</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.04454928518059112</v>
+        <v>0.04454928518059113</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03667404983447131</v>
+        <v>0.03496766265333286</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0260897782997346</v>
+        <v>0.02710153522149887</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03557521816570953</v>
+        <v>0.03525092486162819</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0700091738952921</v>
+        <v>0.06882313107566215</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05197647615386752</v>
+        <v>0.05203945105294547</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05651611036434161</v>
+        <v>0.05666099788920619</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.03548351804844366</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.03751166029029614</v>
+        <v>0.03751166029029613</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.03653603892742233</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02293005388995295</v>
+        <v>0.02244154435247731</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02549186183736115</v>
+        <v>0.02533477846234273</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02716123198535359</v>
+        <v>0.02756231673245138</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0545092405474815</v>
+        <v>0.05156538326508622</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05241955342937855</v>
+        <v>0.05247542341051274</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04791407653560457</v>
+        <v>0.04765126547524242</v>
       </c>
     </row>
     <row r="22">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.03623091770221548</v>
+        <v>0.03623091770221549</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0293651439290759</v>
+        <v>0.02936514392907589</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.03211389408600983</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02027238533609263</v>
+        <v>0.02019194632311319</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01925066215597843</v>
+        <v>0.01828853199383496</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02316415800384639</v>
+        <v>0.02359686126453938</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05604287003549234</v>
+        <v>0.05993574975772228</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04486369108708187</v>
+        <v>0.04302204185859849</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04330794692619366</v>
+        <v>0.04522808441344079</v>
       </c>
     </row>
     <row r="25">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.04152075883530864</v>
+        <v>0.04152075883530863</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.04045910578292512</v>
+        <v>0.04045910578292511</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.04097502241913239</v>
+        <v>0.04097502241913237</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03464574535480461</v>
+        <v>0.03472594801607191</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.03506075438050197</v>
+        <v>0.03443670564577304</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03652493271258254</v>
+        <v>0.03653239970017463</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04905539762495405</v>
+        <v>0.0489466009003074</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04737220145009059</v>
+        <v>0.04674736615273024</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04621879951915979</v>
+        <v>0.0461239848764024</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8513</v>
+        <v>8653</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13937</v>
+        <v>13271</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>28783</v>
+        <v>26953</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>34352</v>
+        <v>33358</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>41644</v>
+        <v>42467</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>66785</v>
+        <v>66438</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9027</v>
+        <v>9167</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9654</v>
+        <v>9195</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>22028</v>
+        <v>22859</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28827</v>
+        <v>29141</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>27164</v>
+        <v>25446</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>47370</v>
+        <v>48090</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15392</v>
+        <v>15513</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>18620</v>
+        <v>18753</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>40058</v>
+        <v>38451</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35835</v>
+        <v>36089</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>37227</v>
+        <v>37985</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>66127</v>
+        <v>65303</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>21082</v>
+        <v>20482</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>22210</v>
+        <v>21974</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>45321</v>
+        <v>46899</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>44516</v>
+        <v>42743</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>40404</v>
+        <v>39546</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>74758</v>
+        <v>75212</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>22347</v>
+        <v>21307</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15885</v>
+        <v>16501</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>43338</v>
+        <v>42943</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>42660</v>
+        <v>41937</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>31646</v>
+        <v>31684</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>68848</v>
+        <v>69025</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9334</v>
+        <v>9136</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>11195</v>
+        <v>11126</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>22985</v>
+        <v>23325</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>22190</v>
+        <v>20991</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>23021</v>
+        <v>23045</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>40547</v>
+        <v>40325</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>6288</v>
+        <v>6264</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>8944</v>
+        <v>8497</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>17948</v>
+        <v>18283</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>17384</v>
+        <v>18592</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>20844</v>
+        <v>19988</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>33555</v>
+        <v>35043</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>122395</v>
+        <v>122679</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>131020</v>
+        <v>128688</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>265526</v>
+        <v>265580</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>173301</v>
+        <v>172917</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>177028</v>
+        <v>174693</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>335998</v>
+        <v>335308</v>
       </c>
     </row>
     <row r="36">
